--- a/src/main/resources/61-microservice-recruit-master/pf-recruit_structure.xlsx
+++ b/src/main/resources/61-microservice-recruit-master/pf-recruit_structure.xlsx
@@ -1177,7 +1177,7 @@
     <t>allRecruit(java.lang.String,java.lang.Integer,java.lang.Integer)</t>
   </si>
   <si>
-    <t>postResume(javax.servlet.http.HttpServletRequest)</t>
+    <t>postResume(javax.servlet.http.HttpServletRequest,com.stalary.pf.recruit.data.dto.SendResume)</t>
   </si>
   <si>
     <t>getHrInfo(javax.servlet.http.HttpServletRequest)</t>
